--- a/annotation tables/Simi Annotation Table Template.xlsx
+++ b/annotation tables/Simi Annotation Table Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahan/sciebo/PythonCode/AutoGaitA Docs &amp; Backups/SC XLS Doc Templates Examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahan/sciebo/PythonCode/autogaita_repository/annotation tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{35EF6E50-48EE-AC44-9FDC-0EF7A54C3309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5826B632-71D2-9E46-ABA2-2023081FFE23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="1680" windowWidth="25940" windowHeight="14720" xr2:uid="{CB971297-D778-244B-AE13-C2B69E31666C}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>right</t>
+  </si>
+  <si>
+    <t>RUN 3</t>
+  </si>
+  <si>
+    <t>RUN 4</t>
   </si>
 </sst>
 </file>
@@ -508,7 +514,7 @@
   <dimension ref="A1:BD252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -802,10 +808,17 @@
     </row>
     <row r="5" spans="1:56" x14ac:dyDescent="0.2">
       <c r="D5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" s="8"/>
       <c r="I5" s="7"/>
       <c r="K5" s="8"/>
@@ -833,9 +846,18 @@
       <c r="BD5" s="8"/>
     </row>
     <row r="6" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="7"/>
       <c r="K6" s="8"/>
@@ -863,7 +885,11 @@
       <c r="BD6" s="8"/>
     </row>
     <row r="7" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="E7" s="8"/>
+      <c r="D7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
       <c r="H7" s="8"/>
       <c r="I7" s="9"/>
       <c r="K7" s="8"/>
@@ -1014,10 +1040,17 @@
     </row>
     <row r="11" spans="1:56" x14ac:dyDescent="0.2">
       <c r="D11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="9"/>
       <c r="K11" s="8"/>
@@ -1045,7 +1078,18 @@
       <c r="BD11" s="8"/>
     </row>
     <row r="12" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="E12" s="8"/>
+      <c r="D12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="7"/>
       <c r="K12" s="8"/>
@@ -1073,7 +1117,11 @@
       <c r="BD12" s="8"/>
     </row>
     <row r="13" spans="1:56" x14ac:dyDescent="0.2">
-      <c r="E13" s="8"/>
+      <c r="D13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
       <c r="H13" s="8"/>
       <c r="I13" s="7"/>
       <c r="K13" s="8"/>
